--- a/biology/Biochimie/Mémoire_nucléaire/Mémoire_nucléaire.xlsx
+++ b/biology/Biochimie/Mémoire_nucléaire/Mémoire_nucléaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9moire_nucl%C3%A9aire</t>
+          <t>Mémoire_nucléaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fibres chromatiniennes se condensent autour de certains éléments du nucleosquelette auxquelles elles restent associées. Le schéma de l’organisation nucléaire est ainsi préservé au sein de l’architecture des chromosomes.
 Lors de la vésicularisation de l’enveloppe nucléaire, les lamines B, qui ne se dépolymérise pas, vont rester fixer aux télomères des chromosomes mitotiques qui demeurent confinés dans le cocon de microfilament intermédiaires.
